--- a/大学物理实验/实验十八 电子和场/实验十八 电子和场.xlsx
+++ b/大学物理实验/实验十八 电子和场/实验十八 电子和场.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\大学物理实验\实验十八 电子和场\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234250EB-649A-43D1-9864-D946A870DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF3CC0D-0336-4DC5-8CA8-05042FB53F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,10 +502,31 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,12 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,19 +547,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,27 +572,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,7 +1093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1211,7 +1211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2455,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="107" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2467,267 +2467,267 @@
   <sheetData>
     <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>-25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>-20</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>-15</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>-10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>-5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>5</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>15</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="2">
         <v>20</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>-16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>-12.2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>-8.1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="1">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="1">
         <v>8</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="1">
         <v>11.9</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="1">
         <v>15.7</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="4">
         <v>19.3</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>-25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>-20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>-15</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>-10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>-5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <v>15</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="1">
         <v>20</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>-26.3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>-21</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>-15.7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>-10.4</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>-5.2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <v>5.3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="5">
         <v>10.5</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="5">
         <v>15.4</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="5">
         <v>20.399999999999999</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="6">
         <v>25.2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
+      <c r="C12" s="23"/>
+      <c r="D12" s="7">
         <v>0.65</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15">
+      <c r="E12" s="8"/>
+      <c r="F12" s="7">
         <v>0.7</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
+      <c r="C13" s="23"/>
+      <c r="D13" s="7">
         <v>0.64</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7">
         <v>0.69</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="26">
+      <c r="D14" s="9">
         <v>0.64500000000000002</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26">
+      <c r="E14" s="10"/>
+      <c r="F14" s="9">
         <v>0.69499999999999995</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
